--- a/excelSheet/nhóm L3.xlsx
+++ b/excelSheet/nhóm L3.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,55 +842,11 @@
         <v/>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="P7"/>
-    <hyperlink ref="P8"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelSheet/nhóm L3.xlsx
+++ b/excelSheet/nhóm L3.xlsx
@@ -47,7 +47,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -62,20 +62,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="00CCE0FF"/>
+        <bgColor rgb="00CCE0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00365072"/>
-        <bgColor rgb="00365072"/>
+        <fgColor rgb="006699CC"/>
+        <bgColor rgb="006699CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4C639"/>
-        <bgColor rgb="00A4C639"/>
+        <fgColor rgb="009FC9E7"/>
+        <bgColor rgb="009FC9E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E57C"/>
+        <bgColor rgb="00B0E57C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+        <bgColor rgb="00008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,13 +128,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -580,42 +595,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -625,17 +640,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -645,12 +660,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -660,70 +675,70 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n"/>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>Áp dụng lowcode notification và import file OKR KPI lên Tool nhân sự trước 23.8.2023</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs cá nhân và team được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="7" t="inlineStr">
-        <is>
-          <t>Triển khai lowcode notification: 16h
-Áp dụng low import file OKR, KPI: 32h"</t>
-        </is>
-      </c>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="7" t="inlineStr">
+      <c r="L4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="8" t="inlineStr">
+        <is>
+          <t>OnCX: review merge code, họp 10h/tháng
+SOP: review merge code, fix issue 26h/tháng</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -731,114 +746,114 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs cá nhân và team được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Áp dụng lowcode notification và import file OKR KPI lên Tool nhân sự trước 23.8.2023</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>36</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="7" t="inlineStr">
-        <is>
-          <t>OnCX: review merge code, họp 10h/tháng
-SOP: review merge code, fix issue 26h/tháng</t>
-        </is>
-      </c>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="7" t="inlineStr">
+      <c r="L5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>76</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
+        <is>
+          <t>Triển khai lowcode notification: 16h
+Áp dụng low import file OKR, KPI: 32h"</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="A6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="O6" s="8" t="inlineStr"/>
-      <c r="P6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R6" s="7" t="n">
+      <c r="O6" s="9" t="inlineStr"/>
+      <c r="P6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R6" s="8" t="n">
         <v/>
       </c>
     </row>
